--- a/wti模型3.0/data_input_auto/wti原油期货价格.xlsx
+++ b/wti模型3.0/data_input_auto/wti原油期货价格.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8554"/>
+  <dimension ref="A1:B8555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68875,6 +68875,14 @@
         <v>61.44</v>
       </c>
     </row>
+    <row r="8555">
+      <c r="A8555" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B8555" t="n">
+        <v>61.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
